--- a/2024年_スキル検索モデル（仮）/04.テーブル設計/テーブル定義.xlsx
+++ b/2024年_スキル検索モデル（仮）/04.テーブル設計/テーブル定義.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/プロジェクト/ドキュメント共有フォルダ/__年_プロジェクト名/04.テーブル設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/プロジェクト/ドキュメント共有フォルダ/2024年_スキル検索モデル（仮）/04.テーブル設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F971DA-DFD8-6549-8821-3810979526A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1884A038-2B68-6543-87B8-441BEDD847C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="19840" activeTab="3" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="3" r:id="rId1"/>
     <sheet name="ヘッダー" sheetId="2" r:id="rId2"/>
     <sheet name="テーブル一覧" sheetId="5" r:id="rId3"/>
-    <sheet name=" No99_ 物理テーブル名 ( 論理テーブル名 )" sheetId="7" r:id="rId4"/>
+    <sheet name=" No1_engineer(技術者情報マスタ) " sheetId="8" r:id="rId4"/>
+    <sheet name=" 一覧のNo_ 物理テーブル名 ( 論理テーブル名 )" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">テーブル一覧!#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="74">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -326,7 +327,181 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ー</t>
+    <t>スキル検索モデル（仮）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠山</t>
+    <rPh sb="0" eb="2">
+      <t>トオヤｍア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術者情報マスタ</t>
+    <rPh sb="0" eb="3">
+      <t>ギジュｔウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術者の基本情報及びスキルデータを保持する</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ｓｙア</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>キホｎン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">オヨビ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホｚイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>engineer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術者の基本情報及びスキルデータを保持する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>years_of_experience</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>first_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術者ナンバー</t>
+    <rPh sb="0" eb="3">
+      <t>ギジュｔウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンジニア経験年数</t>
+    <rPh sb="5" eb="9">
+      <t>ケイケｎン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名_名前</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名_名字</t>
+    <rPh sb="0" eb="1">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄駅_路線名</t>
+    <rPh sb="0" eb="3">
+      <t>モヨｒイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ロセンム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄駅名</t>
+    <rPh sb="0" eb="3">
+      <t>モヨｒイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nearest_station_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nearest_station_line_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String(40)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>シークエンス　連番</t>
+    <rPh sb="7" eb="9">
+      <t>レンバｎン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -334,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -432,6 +607,12 @@
       <color theme="1"/>
       <name val="MeiryoUI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="MeiryoUI"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -617,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,15 +847,129 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,85 +997,85 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,28 +1087,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,119 +1105,47 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -995,7 +1200,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3296"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3365"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1054,7 +1259,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s7301"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s7370"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1382,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B6673E-2360-A946-8C72-565FE4FC3012}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -1394,7 +1599,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="15">
-      <c r="A1" s="18"/>
+      <c r="A1" s="17"/>
     </row>
     <row r="2" spans="1:52" customFormat="1" ht="15"/>
     <row r="3" spans="1:52" customFormat="1" ht="15"/>
@@ -1467,9 +1672,8 @@
       <c r="AZ7" s="7"/>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="11" t="str">
-        <f>IF(G8="","",ROW()-7)</f>
-        <v/>
+      <c r="A8" s="11">
+        <v>1</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
@@ -1478,12 +1682,16 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="11"/>
+      <c r="G8" s="114">
+        <v>45459</v>
+      </c>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -1512,7 +1720,9 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="5"/>
-      <c r="AM8" s="4"/>
+      <c r="AM8" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
@@ -1537,7 +1747,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -3067,6 +3277,9 @@
       <c r="AZ35" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G8:K8"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3083,187 +3296,193 @@
   <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="28" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="28" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="28" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="28" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="28" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="28" t="s">
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="30"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="44"/>
       <c r="BB1" s="2"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="31" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="33"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="51">
+        <v>45459</v>
+      </c>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="47"/>
       <c r="BB2" s="2"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="36"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="50"/>
       <c r="BB3" s="2"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -3275,6 +3494,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -3283,11 +3507,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3300,1184 +3519,1192 @@
   <dimension ref="A1:BA25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="76" customWidth="1"/>
-    <col min="2" max="16384" width="3.33203125" style="76"/>
+    <col min="1" max="1" width="4.33203125" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="3.33203125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="75"/>
-      <c r="AZ1" s="75"/>
-      <c r="BA1" s="75"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
     </row>
     <row r="2" spans="1:53">
-      <c r="A2" s="77"/>
+      <c r="A2" s="32"/>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="77"/>
+      <c r="A3" s="32"/>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="77"/>
+      <c r="A4" s="32"/>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="77"/>
+      <c r="A5" s="32"/>
     </row>
     <row r="6" spans="1:53" ht="23" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="P6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="79" t="s">
+      <c r="R6" s="67"/>
+      <c r="S6" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="80"/>
-      <c r="AK6" s="80"/>
-      <c r="AL6" s="80"/>
-      <c r="AM6" s="80"/>
-      <c r="AN6" s="80"/>
-      <c r="AO6" s="80"/>
-      <c r="AP6" s="81"/>
-      <c r="AQ6" s="44" t="s">
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="69"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="69"/>
+      <c r="AI6" s="69"/>
+      <c r="AJ6" s="69"/>
+      <c r="AK6" s="69"/>
+      <c r="AL6" s="69"/>
+      <c r="AM6" s="69"/>
+      <c r="AN6" s="69"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="70"/>
+      <c r="AQ6" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="46"/>
+      <c r="AR6" s="73"/>
+      <c r="AS6" s="73"/>
+      <c r="AT6" s="73"/>
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="73"/>
+      <c r="AY6" s="67"/>
     </row>
     <row r="7" spans="1:53" ht="17" customHeight="1">
-      <c r="A7" s="82">
+      <c r="A7" s="34">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="88"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="88"/>
-      <c r="AI7" s="88"/>
-      <c r="AJ7" s="88"/>
-      <c r="AK7" s="88"/>
-      <c r="AL7" s="88"/>
-      <c r="AM7" s="88"/>
-      <c r="AN7" s="88"/>
-      <c r="AO7" s="88"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="83"/>
-      <c r="AS7" s="83"/>
-      <c r="AT7" s="83"/>
-      <c r="AU7" s="83"/>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="84"/>
+      <c r="B7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="72"/>
+      <c r="S7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="36"/>
     </row>
     <row r="8" spans="1:53" ht="17" customHeight="1">
-      <c r="A8" s="82">
+      <c r="A8" s="34">
         <f t="shared" ref="A8:A24" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="83"/>
-      <c r="AS8" s="83"/>
-      <c r="AT8" s="83"/>
-      <c r="AU8" s="83"/>
-      <c r="AV8" s="83"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="83"/>
-      <c r="AY8" s="84"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="36"/>
     </row>
     <row r="9" spans="1:53" ht="17" customHeight="1">
-      <c r="A9" s="82">
+      <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="88"/>
-      <c r="AM9" s="88"/>
-      <c r="AN9" s="88"/>
-      <c r="AO9" s="88"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="85"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="84"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35"/>
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35"/>
+      <c r="AY9" s="36"/>
     </row>
     <row r="10" spans="1:53" ht="17" customHeight="1">
-      <c r="A10" s="82">
+      <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="88"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="88"/>
-      <c r="AN10" s="88"/>
-      <c r="AO10" s="88"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="84"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="35"/>
+      <c r="AV10" s="35"/>
+      <c r="AW10" s="35"/>
+      <c r="AX10" s="35"/>
+      <c r="AY10" s="36"/>
     </row>
     <row r="11" spans="1:53" ht="17" customHeight="1">
-      <c r="A11" s="82">
+      <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="88"/>
-      <c r="AK11" s="88"/>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="83"/>
-      <c r="AT11" s="83"/>
-      <c r="AU11" s="83"/>
-      <c r="AV11" s="83"/>
-      <c r="AW11" s="83"/>
-      <c r="AX11" s="83"/>
-      <c r="AY11" s="84"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="35"/>
+      <c r="AY11" s="36"/>
     </row>
     <row r="12" spans="1:53" ht="17" customHeight="1">
-      <c r="A12" s="82">
+      <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="88"/>
-      <c r="AJ12" s="88"/>
-      <c r="AK12" s="88"/>
-      <c r="AL12" s="88"/>
-      <c r="AM12" s="88"/>
-      <c r="AN12" s="88"/>
-      <c r="AO12" s="88"/>
-      <c r="AP12" s="89"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="83"/>
-      <c r="AW12" s="83"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="84"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="36"/>
     </row>
     <row r="13" spans="1:53" ht="13.5" customHeight="1">
-      <c r="A13" s="82">
+      <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="88"/>
-      <c r="AH13" s="88"/>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="88"/>
-      <c r="AK13" s="88"/>
-      <c r="AL13" s="88"/>
-      <c r="AM13" s="88"/>
-      <c r="AN13" s="88"/>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="89"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="83"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="83"/>
-      <c r="AV13" s="83"/>
-      <c r="AW13" s="83"/>
-      <c r="AX13" s="83"/>
-      <c r="AY13" s="84"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="36"/>
     </row>
     <row r="14" spans="1:53" ht="13.5" customHeight="1">
-      <c r="A14" s="82">
+      <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="88"/>
-      <c r="AI14" s="88"/>
-      <c r="AJ14" s="88"/>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="89"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="83"/>
-      <c r="AT14" s="83"/>
-      <c r="AU14" s="83"/>
-      <c r="AV14" s="83"/>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="84"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="36"/>
     </row>
     <row r="15" spans="1:53" ht="21" customHeight="1">
-      <c r="A15" s="82">
+      <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="88"/>
-      <c r="AI15" s="88"/>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="88"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="88"/>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="85"/>
-      <c r="AR15" s="83"/>
-      <c r="AS15" s="83"/>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="83"/>
-      <c r="AV15" s="83"/>
-      <c r="AW15" s="83"/>
-      <c r="AX15" s="83"/>
-      <c r="AY15" s="84"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="35"/>
+      <c r="AT15" s="35"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="35"/>
+      <c r="AW15" s="35"/>
+      <c r="AX15" s="35"/>
+      <c r="AY15" s="36"/>
     </row>
     <row r="16" spans="1:53" ht="17" customHeight="1">
-      <c r="A16" s="82">
+      <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="88"/>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="89"/>
-      <c r="AQ16" s="85"/>
-      <c r="AR16" s="83"/>
-      <c r="AS16" s="83"/>
-      <c r="AT16" s="83"/>
-      <c r="AU16" s="83"/>
-      <c r="AV16" s="83"/>
-      <c r="AW16" s="83"/>
-      <c r="AX16" s="83"/>
-      <c r="AY16" s="84"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="35"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="35"/>
+      <c r="AY16" s="36"/>
     </row>
     <row r="17" spans="1:51" ht="17" customHeight="1">
-      <c r="A17" s="82">
+      <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="88"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="88"/>
-      <c r="AC17" s="88"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="88"/>
-      <c r="AI17" s="88"/>
-      <c r="AJ17" s="88"/>
-      <c r="AK17" s="88"/>
-      <c r="AL17" s="88"/>
-      <c r="AM17" s="88"/>
-      <c r="AN17" s="88"/>
-      <c r="AO17" s="88"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="85"/>
-      <c r="AR17" s="83"/>
-      <c r="AS17" s="83"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="83"/>
-      <c r="AV17" s="83"/>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="83"/>
-      <c r="AY17" s="84"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="35"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="35"/>
+      <c r="AX17" s="35"/>
+      <c r="AY17" s="36"/>
     </row>
     <row r="18" spans="1:51" ht="17" customHeight="1">
-      <c r="A18" s="82">
+      <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="88"/>
-      <c r="AN18" s="88"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="85"/>
-      <c r="AR18" s="83"/>
-      <c r="AS18" s="83"/>
-      <c r="AT18" s="83"/>
-      <c r="AU18" s="83"/>
-      <c r="AV18" s="83"/>
-      <c r="AW18" s="83"/>
-      <c r="AX18" s="83"/>
-      <c r="AY18" s="84"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="36"/>
     </row>
     <row r="19" spans="1:51" ht="17" customHeight="1">
-      <c r="A19" s="82">
+      <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="88"/>
-      <c r="AN19" s="88"/>
-      <c r="AO19" s="88"/>
-      <c r="AP19" s="89"/>
-      <c r="AQ19" s="85"/>
-      <c r="AR19" s="83"/>
-      <c r="AS19" s="83"/>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="83"/>
-      <c r="AV19" s="83"/>
-      <c r="AW19" s="83"/>
-      <c r="AX19" s="83"/>
-      <c r="AY19" s="84"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="35"/>
+      <c r="AS19" s="35"/>
+      <c r="AT19" s="35"/>
+      <c r="AU19" s="35"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="35"/>
+      <c r="AX19" s="35"/>
+      <c r="AY19" s="36"/>
     </row>
     <row r="20" spans="1:51" ht="17" customHeight="1">
-      <c r="A20" s="82">
+      <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="88"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="89"/>
-      <c r="AQ20" s="85"/>
-      <c r="AR20" s="83"/>
-      <c r="AS20" s="83"/>
-      <c r="AT20" s="83"/>
-      <c r="AU20" s="83"/>
-      <c r="AV20" s="83"/>
-      <c r="AW20" s="83"/>
-      <c r="AX20" s="83"/>
-      <c r="AY20" s="84"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="35"/>
+      <c r="AS20" s="35"/>
+      <c r="AT20" s="35"/>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="35"/>
+      <c r="AX20" s="35"/>
+      <c r="AY20" s="36"/>
     </row>
     <row r="21" spans="1:51" ht="17" customHeight="1">
-      <c r="A21" s="82">
+      <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="88"/>
-      <c r="AN21" s="88"/>
-      <c r="AO21" s="88"/>
-      <c r="AP21" s="89"/>
-      <c r="AQ21" s="85"/>
-      <c r="AR21" s="83"/>
-      <c r="AS21" s="83"/>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="83"/>
-      <c r="AV21" s="83"/>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="83"/>
-      <c r="AY21" s="84"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="35"/>
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="35"/>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="35"/>
+      <c r="AX21" s="35"/>
+      <c r="AY21" s="36"/>
     </row>
     <row r="22" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A22" s="82">
+      <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="88"/>
-      <c r="AN22" s="88"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="89"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="83"/>
-      <c r="AS22" s="83"/>
-      <c r="AT22" s="83"/>
-      <c r="AU22" s="83"/>
-      <c r="AV22" s="83"/>
-      <c r="AW22" s="83"/>
-      <c r="AX22" s="83"/>
-      <c r="AY22" s="84"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+      <c r="AX22" s="35"/>
+      <c r="AY22" s="36"/>
     </row>
     <row r="23" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A23" s="82">
+      <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="88"/>
-      <c r="AN23" s="88"/>
-      <c r="AO23" s="88"/>
-      <c r="AP23" s="89"/>
-      <c r="AQ23" s="85"/>
-      <c r="AR23" s="83"/>
-      <c r="AS23" s="83"/>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="83"/>
-      <c r="AV23" s="83"/>
-      <c r="AW23" s="83"/>
-      <c r="AX23" s="83"/>
-      <c r="AY23" s="84"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="35"/>
+      <c r="AS23" s="35"/>
+      <c r="AT23" s="35"/>
+      <c r="AU23" s="35"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="35"/>
+      <c r="AX23" s="35"/>
+      <c r="AY23" s="36"/>
     </row>
     <row r="24" spans="1:51">
-      <c r="A24" s="82">
+      <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="88"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="88"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="88"/>
-      <c r="AN24" s="88"/>
-      <c r="AO24" s="88"/>
-      <c r="AP24" s="89"/>
-      <c r="AQ24" s="85"/>
-      <c r="AR24" s="83"/>
-      <c r="AS24" s="83"/>
-      <c r="AT24" s="83"/>
-      <c r="AU24" s="83"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="83"/>
-      <c r="AY24" s="84"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
+      <c r="AJ24" s="35"/>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35"/>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="36"/>
     </row>
     <row r="25" spans="1:51">
-      <c r="A25" s="90"/>
-      <c r="B25" s="76" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4499,1227 +4726,2662 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8357493-1BF8-4D4D-945D-8453AECFBF31}">
+  <dimension ref="A1:BC29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="4.33203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="20">
+      <c r="A1" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55">
+      <c r="B2" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="108">
+        <v>45459</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="89"/>
+    </row>
+    <row r="3" spans="1:55">
+      <c r="B3" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="90"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="92"/>
+    </row>
+    <row r="4" spans="1:55">
+      <c r="B4" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="19" t="str">
+        <f>テーブル一覧!B7</f>
+        <v>技術者情報マスタ</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="21"/>
+    </row>
+    <row r="5" spans="1:55">
+      <c r="B5" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f>テーブル一覧!I7</f>
+        <v>engineer</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="24"/>
+    </row>
+    <row r="6" spans="1:55">
+      <c r="B6" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="80"/>
+    </row>
+    <row r="7" spans="1:55">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="83"/>
+    </row>
+    <row r="8" spans="1:55">
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="86"/>
+    </row>
+    <row r="10" spans="1:55" ht="20">
+      <c r="A10" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55">
+      <c r="B11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="28"/>
+    </row>
+    <row r="12" spans="1:55">
+      <c r="B12" s="39">
+        <f>ROW()-11</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="21"/>
+    </row>
+    <row r="13" spans="1:55">
+      <c r="B13" s="39">
+        <f t="shared" ref="B13:B25" si="0">ROW()-11</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="21"/>
+    </row>
+    <row r="14" spans="1:55">
+      <c r="B14" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="21"/>
+    </row>
+    <row r="15" spans="1:55">
+      <c r="B15" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="21"/>
+    </row>
+    <row r="16" spans="1:55">
+      <c r="B16" s="39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="20"/>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="21"/>
+    </row>
+    <row r="17" spans="1:55">
+      <c r="B17" s="39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="20"/>
+      <c r="BC17" s="21"/>
+    </row>
+    <row r="18" spans="1:55">
+      <c r="B18" s="39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="21"/>
+    </row>
+    <row r="19" spans="1:55">
+      <c r="B19" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="21"/>
+    </row>
+    <row r="20" spans="1:55">
+      <c r="B20" s="39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="21"/>
+    </row>
+    <row r="21" spans="1:55">
+      <c r="B21" s="39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="21"/>
+    </row>
+    <row r="22" spans="1:55">
+      <c r="B22" s="39">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="21"/>
+    </row>
+    <row r="23" spans="1:55">
+      <c r="B23" s="39">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="21"/>
+    </row>
+    <row r="24" spans="1:55">
+      <c r="B24" s="39">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="21"/>
+    </row>
+    <row r="25" spans="1:55">
+      <c r="B25" s="39">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="21"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="21"/>
+    </row>
+    <row r="27" spans="1:55" ht="20">
+      <c r="A27" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55">
+      <c r="B28" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="28"/>
+    </row>
+    <row r="29" spans="1:55">
+      <c r="B29" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G8"/>
+    <mergeCell ref="H6:Y8"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="T3:Y3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA12:AD25 AE12:AF16 AE19:AF25" xr:uid="{185F62DD-DD48-0446-94A1-F28EB9AD87E2}">
+      <formula1>"-,○"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D040FF-B059-154F-810C-B5876E7214BF}">
   <dimension ref="A1:BC28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:AL28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="4.33203125" style="43"/>
+    <col min="1" max="16384" width="4.33203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="20">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:55">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="44" t="s">
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="89"/>
     </row>
     <row r="3" spans="1:55">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="50" t="s">
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="54"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="92"/>
     </row>
     <row r="4" spans="1:55">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="60"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="21"/>
     </row>
     <row r="5" spans="1:55">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="63"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="24"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="101"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="80"/>
     </row>
     <row r="7" spans="1:55">
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="104"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="83"/>
     </row>
     <row r="8" spans="1:55">
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="107"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="86"/>
     </row>
     <row r="10" spans="1:55" ht="20">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="41" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:55">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="71" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="71" t="s">
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="72" t="s">
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="71" t="s">
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="71" t="s">
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="71" t="s">
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="71" t="s">
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="72"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="72"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="72"/>
-      <c r="BC11" s="73"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="28"/>
     </row>
     <row r="12" spans="1:55">
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="93"/>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="93"/>
-      <c r="AV12" s="93"/>
-      <c r="AW12" s="93"/>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="93"/>
-      <c r="BA12" s="93"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="94"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="21"/>
     </row>
     <row r="13" spans="1:55">
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="94"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="93"/>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="93"/>
-      <c r="AT13" s="93"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="93"/>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="93"/>
-      <c r="AY13" s="93"/>
-      <c r="AZ13" s="93"/>
-      <c r="BA13" s="93"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="94"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="21"/>
     </row>
     <row r="14" spans="1:55">
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="93"/>
-      <c r="AW14" s="93"/>
-      <c r="AX14" s="93"/>
-      <c r="AY14" s="93"/>
-      <c r="AZ14" s="93"/>
-      <c r="BA14" s="93"/>
-      <c r="BB14" s="93"/>
-      <c r="BC14" s="94"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="21"/>
     </row>
     <row r="15" spans="1:55">
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="94"/>
-      <c r="AL15" s="92"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="93"/>
-      <c r="AO15" s="93"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="93"/>
-      <c r="AS15" s="93"/>
-      <c r="AT15" s="93"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="93"/>
-      <c r="AW15" s="93"/>
-      <c r="AX15" s="93"/>
-      <c r="AY15" s="93"/>
-      <c r="AZ15" s="93"/>
-      <c r="BA15" s="93"/>
-      <c r="BB15" s="93"/>
-      <c r="BC15" s="94"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="21"/>
     </row>
     <row r="16" spans="1:55">
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="94"/>
-      <c r="AL16" s="92"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="93"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="94"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="20"/>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="21"/>
     </row>
     <row r="17" spans="1:55">
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="98"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="94"/>
-      <c r="AL17" s="92"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="93"/>
-      <c r="AP17" s="93"/>
-      <c r="AQ17" s="93"/>
-      <c r="AR17" s="93"/>
-      <c r="AS17" s="93"/>
-      <c r="AT17" s="93"/>
-      <c r="AU17" s="93"/>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="93"/>
-      <c r="AX17" s="93"/>
-      <c r="AY17" s="93"/>
-      <c r="AZ17" s="93"/>
-      <c r="BA17" s="93"/>
-      <c r="BB17" s="93"/>
-      <c r="BC17" s="94"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="20"/>
+      <c r="BC17" s="21"/>
     </row>
     <row r="18" spans="1:55">
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="93"/>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="93"/>
-      <c r="AQ18" s="93"/>
-      <c r="AR18" s="93"/>
-      <c r="AS18" s="93"/>
-      <c r="AT18" s="93"/>
-      <c r="AU18" s="93"/>
-      <c r="AV18" s="93"/>
-      <c r="AW18" s="93"/>
-      <c r="AX18" s="93"/>
-      <c r="AY18" s="93"/>
-      <c r="AZ18" s="93"/>
-      <c r="BA18" s="93"/>
-      <c r="BB18" s="93"/>
-      <c r="BC18" s="94"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="21"/>
     </row>
     <row r="19" spans="1:55">
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="94"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="93"/>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="93"/>
-      <c r="AQ19" s="93"/>
-      <c r="AR19" s="93"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="93"/>
-      <c r="AV19" s="93"/>
-      <c r="AW19" s="93"/>
-      <c r="AX19" s="93"/>
-      <c r="AY19" s="93"/>
-      <c r="AZ19" s="93"/>
-      <c r="BA19" s="93"/>
-      <c r="BB19" s="93"/>
-      <c r="BC19" s="94"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="21"/>
     </row>
     <row r="20" spans="1:55">
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="94"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
-      <c r="AQ20" s="93"/>
-      <c r="AR20" s="93"/>
-      <c r="AS20" s="93"/>
-      <c r="AT20" s="93"/>
-      <c r="AU20" s="93"/>
-      <c r="AV20" s="93"/>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="93"/>
-      <c r="AY20" s="93"/>
-      <c r="AZ20" s="93"/>
-      <c r="BA20" s="93"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="94"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="21"/>
     </row>
     <row r="21" spans="1:55">
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="93"/>
-      <c r="AK21" s="94"/>
-      <c r="AL21" s="92"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="93"/>
-      <c r="AO21" s="93"/>
-      <c r="AP21" s="93"/>
-      <c r="AQ21" s="93"/>
-      <c r="AR21" s="93"/>
-      <c r="AS21" s="93"/>
-      <c r="AT21" s="93"/>
-      <c r="AU21" s="93"/>
-      <c r="AV21" s="93"/>
-      <c r="AW21" s="93"/>
-      <c r="AX21" s="93"/>
-      <c r="AY21" s="93"/>
-      <c r="AZ21" s="93"/>
-      <c r="BA21" s="93"/>
-      <c r="BB21" s="93"/>
-      <c r="BC21" s="94"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="21"/>
     </row>
     <row r="22" spans="1:55">
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="93"/>
-      <c r="AK22" s="94"/>
-      <c r="AL22" s="92"/>
-      <c r="AM22" s="93"/>
-      <c r="AN22" s="93"/>
-      <c r="AO22" s="93"/>
-      <c r="AP22" s="93"/>
-      <c r="AQ22" s="93"/>
-      <c r="AR22" s="93"/>
-      <c r="AS22" s="93"/>
-      <c r="AT22" s="93"/>
-      <c r="AU22" s="93"/>
-      <c r="AV22" s="93"/>
-      <c r="AW22" s="93"/>
-      <c r="AX22" s="93"/>
-      <c r="AY22" s="93"/>
-      <c r="AZ22" s="93"/>
-      <c r="BA22" s="93"/>
-      <c r="BB22" s="93"/>
-      <c r="BC22" s="94"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="21"/>
     </row>
     <row r="23" spans="1:55">
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="94"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="93"/>
-      <c r="AN23" s="93"/>
-      <c r="AO23" s="93"/>
-      <c r="AP23" s="93"/>
-      <c r="AQ23" s="93"/>
-      <c r="AR23" s="93"/>
-      <c r="AS23" s="93"/>
-      <c r="AT23" s="93"/>
-      <c r="AU23" s="93"/>
-      <c r="AV23" s="93"/>
-      <c r="AW23" s="93"/>
-      <c r="AX23" s="93"/>
-      <c r="AY23" s="93"/>
-      <c r="AZ23" s="93"/>
-      <c r="BA23" s="93"/>
-      <c r="BB23" s="93"/>
-      <c r="BC23" s="94"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+      <c r="AY23" s="20"/>
+      <c r="AZ23" s="20"/>
+      <c r="BA23" s="20"/>
+      <c r="BB23" s="20"/>
+      <c r="BC23" s="21"/>
     </row>
     <row r="24" spans="1:55">
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="97"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="93"/>
-      <c r="AK24" s="94"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="93"/>
-      <c r="AN24" s="93"/>
-      <c r="AO24" s="93"/>
-      <c r="AP24" s="93"/>
-      <c r="AQ24" s="93"/>
-      <c r="AR24" s="93"/>
-      <c r="AS24" s="93"/>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="93"/>
-      <c r="AV24" s="93"/>
-      <c r="AW24" s="93"/>
-      <c r="AX24" s="93"/>
-      <c r="AY24" s="93"/>
-      <c r="AZ24" s="93"/>
-      <c r="BA24" s="93"/>
-      <c r="BB24" s="93"/>
-      <c r="BC24" s="94"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="21"/>
     </row>
     <row r="26" spans="1:55" ht="20">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:55">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="71" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="71" t="s">
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="71" t="s">
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="73"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="28"/>
     </row>
     <row r="28" spans="1:55">
-      <c r="B28" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="93"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="93"/>
-      <c r="AJ28" s="93"/>
-      <c r="AK28" s="93"/>
-      <c r="AL28" s="94"/>
+      <c r="B28" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="H6:Y8"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="T2:Y2"/>
@@ -5733,6 +7395,44 @@
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="N3:S3"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="H6:Y8"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
